--- a/多线程基础.xlsx
+++ b/多线程基础.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="909" activeTab="6"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="909" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
     <sheet name="ConcurrentHashMap" sheetId="10" r:id="rId2"/>
     <sheet name="volatile,sync" sheetId="11" r:id="rId3"/>
-    <sheet name="CyclicBarrier,CountDownLatch" sheetId="12" r:id="rId4"/>
-    <sheet name="ThreadPool" sheetId="13" r:id="rId5"/>
-    <sheet name="锁" sheetId="14" r:id="rId6"/>
+    <sheet name="锁" sheetId="14" r:id="rId4"/>
+    <sheet name="CyclicBarrier,CountDownLatch" sheetId="12" r:id="rId5"/>
+    <sheet name="ThreadPool" sheetId="13" r:id="rId6"/>
     <sheet name="并发容器" sheetId="15" r:id="rId7"/>
     <sheet name="第一章 走进线程" sheetId="1" r:id="rId8"/>
     <sheet name="第二章 多线程目标与挑战" sheetId="2" r:id="rId9"/>
@@ -1318,6 +1318,297 @@
     <t>II.public static synchronized void staticMethod(){};</t>
   </si>
   <si>
+    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
+  <si>
+    <t>synchronized (同步)synchronized关键字修饰的代码相当于数据库上的互斥锁。</t>
+  </si>
+  <si>
+    <t>确保多个线程在同一时刻只能由一个线程处于方法或同步块中，确保线程对变量访问的可见和排它，获得锁的对象在代码结束后，会对锁进行释放。</t>
+  </si>
+  <si>
+    <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分为读锁和写锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不互斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读锁与写锁互斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果你的代码修改数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只能有一个人在写，且不能同时读取，那就上写锁。</t>
+    </r>
+  </si>
+  <si>
+    <t>总之，读的时候上读锁，写的时候上写锁！</t>
+  </si>
+  <si>
+    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
+  </si>
+  <si>
+    <t>在资源竞争不是很激烈的情况下，偶尔会有同步的情形下，synchronized是很合适的。原因在于，编译程序通常会尽可能的进行优化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加了类似轮询锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定时锁等候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可中断锁等候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其实ReentrantLock是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可重入的互斥锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，重入锁是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递归无阻塞的同步机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReentrantLock由最近成功获取锁，还没有释放的线程所拥有，</t>
+    </r>
+  </si>
+  <si>
+    <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
+  </si>
+  <si>
+    <t>Java中的线程一共6种状态</t>
+  </si>
+  <si>
+    <t>Java中的线程一共6种状态，分别是NEW，RUNNABLE，BLOCKED，WAITING，TIMED_WAITING，TERMINATED</t>
+  </si>
+  <si>
+    <t>WAITING 一个线程在等待另一个线程执行一个动作时在这个状态</t>
+  </si>
+  <si>
+    <t>TIMED_WAITING 一个线程在一个特定的等待时间内等待另一个线程完成一个动作会在这个状态</t>
+  </si>
+  <si>
+    <t>BLOCKED 这种状态是指一个阻塞线程在等待monitor锁。</t>
+  </si>
+  <si>
     <t>CyclicBarrier是什么？</t>
   </si>
   <si>
@@ -1477,6 +1768,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>join方法的本质调用的是</t>
     </r>
     <r>
@@ -1493,6 +1791,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>调用wait方法必须要获取锁</t>
     </r>
     <r>
@@ -1519,6 +1825,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>synchronized修饰在方法层面</t>
     </r>
     <r>
@@ -1790,6 +2103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Java是将</t>
     </r>
     <r>
@@ -1840,6 +2160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>多线程技术主要解决处理器单元内</t>
     </r>
     <r>
@@ -2402,297 +2729,6 @@
   </si>
   <si>
     <t>ExecutorService与Executor</t>
-  </si>
-  <si>
-    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
-  </si>
-  <si>
-    <t>synchronized (同步)synchronized关键字修饰的代码相当于数据库上的互斥锁。</t>
-  </si>
-  <si>
-    <t>确保多个线程在同一时刻只能由一个线程处于方法或同步块中，确保线程对变量访问的可见和排它，获得锁的对象在代码结束后，会对锁进行释放。</t>
-  </si>
-  <si>
-    <t>ReentrantLock，意思是“可重入锁”，ReentrantLock是唯一实现了Lock接口的类，并且ReentrantLock提供了更多的方法。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分为读锁和写锁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多个读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锁</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不互斥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读锁与写锁互斥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，这是由jvm自己控制的，我们只要上好相应的锁即可。</t>
-    </r>
-  </si>
-  <si>
-    <t>如果你的代码只读数据，可以很多人同时读，但不能同时写，那就上读锁；</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果你的代码修改数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，只能有一个人在写，且不能同时读取，那就上写锁。</t>
-    </r>
-  </si>
-  <si>
-    <t>总之，读的时候上读锁，写的时候上写锁！</t>
-  </si>
-  <si>
-    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
-  </si>
-  <si>
-    <t>在资源竞争不是很激烈的情况下，偶尔会有同步的情形下，synchronized是很合适的。原因在于，编译程序通常会尽可能的进行优化</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ReentrantLock 类实现了 Lock ，它拥有与 synchronized 相同的并发性和内存语义，但是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>添加了类似轮询锁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>定时锁等候</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可中断锁等候</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的一些特性。此外，它还提供了在激烈争用情况下更佳的性能。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>其实ReentrantLock是一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可重入的互斥锁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，重入锁是一种</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>递归无阻塞的同步机制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ReentrantLock由最近成功获取锁，还没有释放的线程所拥有，</t>
-    </r>
-  </si>
-  <si>
-    <t>当锁被另一个线程拥有时，调用lock的线程可以成功获取锁。如果锁已经被当前线程拥有，当前线程会立即返回</t>
-  </si>
-  <si>
-    <t>Java中的线程一共6种状态</t>
-  </si>
-  <si>
-    <t>Java中的线程一共6种状态，分别是NEW，RUNNABLE，BLOCKED，WAITING，TIMED_WAITING，TERMINATED</t>
-  </si>
-  <si>
-    <t>WAITING 一个线程在等待另一个线程执行一个动作时在这个状态</t>
-  </si>
-  <si>
-    <t>TIMED_WAITING 一个线程在一个特定的等待时间内等待另一个线程完成一个动作会在这个状态</t>
-  </si>
-  <si>
-    <t>BLOCKED 这种状态是指一个阻塞线程在等待monitor锁。</t>
   </si>
   <si>
     <t>List接口的实现类</t>
@@ -3331,9 +3367,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3352,6 +3388,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3360,8 +3434,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3376,52 +3479,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3435,46 +3502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3489,10 +3518,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3505,7 +3541,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,49 +3601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3571,7 +3619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3589,43 +3655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3637,7 +3673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3649,37 +3697,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3699,13 +3735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3714,7 +3754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3730,6 +3770,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3752,32 +3803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3796,16 +3823,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3814,133 +3850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5529,7 +5565,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6481,7 +6517,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="3:5">
@@ -6489,7 +6525,7 @@
         <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -6505,7 +6541,7 @@
         <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -6559,7 +6595,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -6694,7 +6730,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6795,528 +6831,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D47"/>
@@ -7332,18 +6846,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -7351,53 +6865,53 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -7405,27 +6919,27 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -7434,6 +6948,528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:M52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7443,7 +7479,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/多线程基础.xlsx
+++ b/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="909" activeTab="6"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="909" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="386">
   <si>
     <t>ThreadLocal</t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>总之，读的时候上读锁，写的时候上写锁！</t>
+  </si>
+  <si>
+    <t>ReentrantLock 就是基于 AQS 实现的，（AQS：也就是队列同步器，同步队列是一个双向链表）</t>
   </si>
   <si>
     <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
@@ -3367,8 +3370,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3388,8 +3391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3403,19 +3407,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3434,9 +3436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3449,22 +3450,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3479,6 +3475,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3486,16 +3490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3503,15 +3499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3526,9 +3514,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3541,7 +3544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3553,7 +3568,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3565,91 +3634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3667,19 +3658,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3697,31 +3724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3736,25 +3739,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3786,16 +3780,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3803,8 +3797,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3827,6 +3821,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3838,10 +3841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3850,19 +3853,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3871,112 +3874,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5565,8 +5568,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5736,120 +5739,120 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5871,257 +5874,257 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6148,280 +6151,280 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" t="s">
         <v>342</v>
-      </c>
-      <c r="D44" t="s">
-        <v>343</v>
-      </c>
-      <c r="G44" t="s">
-        <v>344</v>
-      </c>
-      <c r="H44" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" t="s">
         <v>348</v>
-      </c>
-      <c r="D46" t="s">
-        <v>349</v>
-      </c>
-      <c r="G46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H46" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6444,42 +6447,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6504,68 +6507,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -6833,10 +6836,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6889,61 +6892,66 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2"/>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6956,7 +6964,7 @@
   <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:M52"/>
     </sheetView>
   </sheetViews>
@@ -6967,22 +6975,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -6990,43 +6998,43 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -7040,142 +7048,142 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7190,8 +7198,8 @@
   <sheetPr/>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -7201,12 +7209,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -7214,248 +7222,248 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -7463,7 +7471,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7478,7 +7486,7 @@
   <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7489,108 +7497,108 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -7615,105 +7623,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7738,74 +7746,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/多线程基础.xlsx
+++ b/多线程基础.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="909" activeTab="5"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="909" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadLocal" sheetId="9" r:id="rId1"/>
@@ -1445,7 +1445,51 @@
     <t>总之，读的时候上读锁，写的时候上写锁！</t>
   </si>
   <si>
-    <t>ReentrantLock 就是基于 AQS 实现的，（AQS：也就是队列同步器，同步队列是一个双向链表）</t>
+    <r>
+      <t>ReentrantLock 就是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AQS 实现的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，（AQS：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也就是队列同步器，同步队列是一个双向链表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
@@ -3391,9 +3435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3401,16 +3444,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3422,7 +3466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3437,14 +3481,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3458,40 +3549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3505,7 +3564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3513,25 +3571,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3544,7 +3588,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3556,7 +3624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3568,7 +3642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,13 +3666,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3598,13 +3738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3616,115 +3768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,32 +3782,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3794,15 +3817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3813,6 +3827,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3841,10 +3885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3853,7 +3897,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3862,124 +3906,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6838,8 +6882,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6893,7 +6937,7 @@
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7198,8 +7242,8 @@
   <sheetPr/>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
